--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1259,7 +1259,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:44:16</t>
+    <t>2016-01-21 08:33:26</t>
   </si>
   <si>
     <t>Ignored</t>
@@ -1463,7 +1463,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:44:27</t>
+    <t>2016-01-21 08:33:37</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.fr-fr.xlf</t>
@@ -1601,7 +1601,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:44:40</t>
+    <t>2016-01-21 08:33:54</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-cn.xlf</t>
@@ -1739,7 +1739,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:44:56</t>
+    <t>2016-01-21 08:34:11</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf</t>
@@ -1877,7 +1877,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:45:12</t>
+    <t>2016-01-21 08:34:28</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ko-kr.xlf</t>
@@ -2027,7 +2027,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:45:32</t>
+    <t>2016-01-21 08:34:40</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.es-es.xlf</t>
@@ -2171,7 +2171,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:45:43</t>
+    <t>2016-01-21 08:34:51</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.it-it.xlf</t>
@@ -2315,7 +2315,7 @@
     <t>manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-01-18 08:45:55</t>
+    <t>2016-01-21 08:35:02</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1655,6 +1655,15 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-26 22:46:16</t>
+  </si>
+  <si>
+    <t>2016-01-27 02:55:31</t>
+  </si>
+  <si>
     <t>whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf</t>
   </si>
   <si>
@@ -1767,15 +1776,6 @@
   </si>
   <si>
     <t>TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-26 22:46:16</t>
-  </si>
-  <si>
-    <t>supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-cn.xlf</t>
   </si>
   <si>
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
@@ -5912,7 +5912,7 @@
         <v>14</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>14</v>
@@ -29445,7 +29445,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -29454,16 +29454,16 @@
         <v>543</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>543</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>277</v>
@@ -29471,22 +29471,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>541</v>
@@ -29497,51 +29497,48 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>547</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>284</v>
+        <v>547</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>541</v>
@@ -29550,27 +29547,27 @@
         <v>285</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>541</v>
@@ -29579,24 +29576,30 @@
         <v>285</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>285</v>
@@ -29607,7 +29610,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -29618,14 +29621,8 @@
       <c r="D10" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>285</v>
@@ -29636,22 +29633,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>541</v>
@@ -29660,27 +29657,27 @@
         <v>285</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>541</v>
@@ -29694,22 +29691,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>541</v>
@@ -29718,27 +29715,27 @@
         <v>285</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>541</v>
@@ -29752,22 +29749,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>541</v>
@@ -29776,27 +29773,27 @@
         <v>285</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>541</v>
@@ -29805,27 +29802,27 @@
         <v>285</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>541</v>
@@ -29834,27 +29831,27 @@
         <v>285</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>541</v>
@@ -29863,27 +29860,27 @@
         <v>285</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>541</v>
@@ -29892,27 +29889,27 @@
         <v>285</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>541</v>
@@ -29926,22 +29923,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>541</v>
@@ -29955,22 +29952,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>541</v>
@@ -29979,27 +29976,27 @@
         <v>285</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>541</v>
@@ -30013,22 +30010,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>541</v>
@@ -30037,27 +30034,27 @@
         <v>285</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>541</v>
@@ -30071,22 +30068,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>541</v>
@@ -30095,27 +30092,27 @@
         <v>285</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>541</v>
@@ -30129,22 +30126,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>541</v>
@@ -30153,27 +30150,27 @@
         <v>285</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>541</v>
@@ -30187,22 +30184,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>541</v>
@@ -30216,74 +30213,74 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="G31" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>541</v>
@@ -30292,27 +30289,27 @@
         <v>285</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>541</v>
@@ -30326,22 +30323,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>541</v>
@@ -30355,22 +30352,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>541</v>
@@ -30384,88 +30381,94 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="G37" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="G38" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="G39" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>540</v>
@@ -30482,117 +30485,117 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="G41" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="G42" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="G43" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="G44" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>540</v>
@@ -30604,30 +30607,24 @@
         <v>285</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>285</v>
@@ -30638,22 +30635,22 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>541</v>
@@ -30667,22 +30664,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>541</v>
@@ -30696,22 +30693,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>541</v>
@@ -30725,152 +30722,155 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="G50" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="G51" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="G52" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="G53" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>285</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>545</v>
+        <v>345</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>545</v>
+        <v>345</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>541</v>
@@ -30881,22 +30881,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>541</v>
@@ -30907,22 +30907,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>541</v>
@@ -30933,22 +30933,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>541</v>
@@ -30959,22 +30959,22 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>541</v>
@@ -30985,22 +30985,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>541</v>
@@ -31011,22 +31011,22 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>541</v>
@@ -31037,22 +31037,22 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>541</v>
@@ -31063,22 +31063,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>541</v>
@@ -31089,22 +31089,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>541</v>
@@ -31115,22 +31115,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>541</v>
@@ -31141,36 +31141,39 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="G66" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>540</v>
@@ -31187,13 +31190,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>540</v>
@@ -31210,25 +31213,19 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="G69" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>285</v>
@@ -31239,48 +31236,51 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>558</v>
+        <v>363</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>558</v>
+        <v>363</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>541</v>
@@ -31291,22 +31291,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>541</v>
@@ -31317,22 +31317,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>541</v>
@@ -31343,22 +31343,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>541</v>
@@ -31369,22 +31369,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>541</v>
@@ -31395,22 +31395,22 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>541</v>
@@ -31421,22 +31421,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>541</v>
@@ -31447,22 +31447,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>541</v>
@@ -31473,51 +31473,48 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>375</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>541</v>
@@ -31526,53 +31523,56 @@
         <v>285</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>541</v>
@@ -31583,22 +31583,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>541</v>
@@ -31609,36 +31609,39 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>289</v>
+        <v>573</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="G84" s="0" t="s">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>540</v>
@@ -31650,18 +31653,18 @@
         <v>285</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>540</v>
@@ -31673,18 +31676,18 @@
         <v>285</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>383</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>540</v>
@@ -31696,18 +31699,18 @@
         <v>285</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>540</v>
@@ -31719,18 +31722,18 @@
         <v>285</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>540</v>
@@ -31742,53 +31745,50 @@
         <v>285</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>571</v>
+        <v>291</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="G90" s="0" t="s">
-        <v>541</v>
+        <v>292</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>541</v>
@@ -31799,22 +31799,22 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>541</v>
@@ -31825,22 +31825,22 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>541</v>
@@ -31851,51 +31851,48 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>392</v>
+        <v>577</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>392</v>
+        <v>577</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>541</v>
@@ -31904,27 +31901,27 @@
         <v>285</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>541</v>
@@ -31933,27 +31930,27 @@
         <v>285</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>541</v>
@@ -31967,22 +31964,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>541</v>
@@ -31991,27 +31988,27 @@
         <v>285</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>541</v>
@@ -32020,27 +32017,27 @@
         <v>285</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>541</v>
@@ -32054,22 +32051,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>541</v>
@@ -32083,22 +32080,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>541</v>
@@ -32112,22 +32109,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>541</v>
@@ -32141,22 +32138,22 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>541</v>
@@ -32165,27 +32162,27 @@
         <v>285</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>541</v>
@@ -32199,48 +32196,51 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>575</v>
+        <v>407</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>575</v>
+        <v>407</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>541</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>541</v>
@@ -32251,22 +32251,22 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>541</v>
@@ -32277,22 +32277,22 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>541</v>
@@ -32303,22 +32303,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>541</v>
@@ -32329,19 +32329,19 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>583</v>
@@ -35016,400 +35016,400 @@
     <hyperlink ref="C3" display="powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.zh-cn.xlf" r:id="rId7"/>
     <hyperlink ref="E3" display="powershell_snippets_new.md" r:id="rId8"/>
     <hyperlink ref="F3" display="powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="whats_new_nov.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="whats_new_nov.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="make_mgmt_service_test.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="make_mgmt_service_test.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="8489e1cb35de12a7cc54a8c1b29f40672eaac851.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="8489e1cb35de12a7cc54a8c1b29f40672eaac851.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="Chat_65.png" r:id="rId22"/>
-    <hyperlink ref="C7" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId23"/>
-    <hyperlink ref="E7" display="Chat_65.png" r:id="rId24"/>
-    <hyperlink ref="F7" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId25"/>
-    <hyperlink ref="A8" display="MeetsRequirements_65.png" r:id="rId26"/>
-    <hyperlink ref="C8" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId27"/>
-    <hyperlink ref="E8" display="1.png" r:id="rId28"/>
-    <hyperlink ref="F8" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId29"/>
-    <hyperlink ref="A9" display="whats_new - Copy.png" r:id="rId30"/>
-    <hyperlink ref="C9" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId31"/>
-    <hyperlink ref="A10" display="whats_new.png" r:id="rId32"/>
-    <hyperlink ref="C10" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId33"/>
-    <hyperlink ref="E10" display="whats_new.png" r:id="rId34"/>
-    <hyperlink ref="F10" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId35"/>
-    <hyperlink ref="A11" display="after_delete.png" r:id="rId36"/>
-    <hyperlink ref="C11" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId37"/>
-    <hyperlink ref="E11" display="after_delete.png" r:id="rId38"/>
-    <hyperlink ref="F11" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId39"/>
-    <hyperlink ref="A12" display="apply_standard.png" r:id="rId40"/>
-    <hyperlink ref="C12" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId41"/>
-    <hyperlink ref="E12" display="apply_standard.png" r:id="rId42"/>
-    <hyperlink ref="F12" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId43"/>
-    <hyperlink ref="A13" display="basic.png" r:id="rId44"/>
-    <hyperlink ref="C13" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId45"/>
-    <hyperlink ref="E13" display="basic.png" r:id="rId46"/>
-    <hyperlink ref="F13" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId47"/>
-    <hyperlink ref="A14" display="checkpoint.png" r:id="rId48"/>
-    <hyperlink ref="C14" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId49"/>
-    <hyperlink ref="E14" display="checkpoint.png" r:id="rId50"/>
-    <hyperlink ref="F14" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId51"/>
-    <hyperlink ref="A15" display="checkpoint_button.png" r:id="rId52"/>
-    <hyperlink ref="C15" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId53"/>
-    <hyperlink ref="E15" display="checkpoint_button.png" r:id="rId54"/>
-    <hyperlink ref="F15" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId55"/>
-    <hyperlink ref="A16" display="click_export.png" r:id="rId56"/>
-    <hyperlink ref="C16" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId57"/>
-    <hyperlink ref="E16" display="click_export.png" r:id="rId58"/>
-    <hyperlink ref="F16" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId59"/>
-    <hyperlink ref="A17" display="command_grid.png" r:id="rId60"/>
-    <hyperlink ref="C17" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId61"/>
-    <hyperlink ref="E17" display="command_grid.png" r:id="rId62"/>
-    <hyperlink ref="F17" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId63"/>
-    <hyperlink ref="A18" display="ctrlaltdel.png" r:id="rId64"/>
-    <hyperlink ref="C18" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId65"/>
-    <hyperlink ref="E18" display="ctrlaltdel.png" r:id="rId66"/>
-    <hyperlink ref="F18" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId67"/>
-    <hyperlink ref="A19" display="delete_checkpoint.png" r:id="rId68"/>
-    <hyperlink ref="C19" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId69"/>
-    <hyperlink ref="E19" display="delete_checkpoint.png" r:id="rId70"/>
-    <hyperlink ref="F19" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId71"/>
-    <hyperlink ref="A20" display="delete_me.png" r:id="rId72"/>
-    <hyperlink ref="C20" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId73"/>
-    <hyperlink ref="E20" display="delete_me.png" r:id="rId74"/>
-    <hyperlink ref="F20" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId75"/>
-    <hyperlink ref="A21" display="delete_warn.png" r:id="rId76"/>
-    <hyperlink ref="C21" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId77"/>
-    <hyperlink ref="E21" display="delete_warn.png" r:id="rId78"/>
-    <hyperlink ref="F21" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId79"/>
-    <hyperlink ref="A22" display="dism_upd.png" r:id="rId80"/>
-    <hyperlink ref="C22" display="a303041e7915293e2affe84599cab647d43119a8.png" r:id="rId81"/>
-    <hyperlink ref="E22" display="dism_upd.png" r:id="rId82"/>
-    <hyperlink ref="F22" display="a303041e7915293e2affe84599cab647d43119a8.png" r:id="rId83"/>
-    <hyperlink ref="A23" display="enable_role_upd.png" r:id="rId84"/>
-    <hyperlink ref="C23" display="1323985a77d40a39f3191207c703e3b426a55795.png" r:id="rId85"/>
-    <hyperlink ref="E23" display="enable_role_upd.png" r:id="rId86"/>
-    <hyperlink ref="F23" display="1323985a77d40a39f3191207c703e3b426a55795.png" r:id="rId87"/>
-    <hyperlink ref="A24" display="export_confirm.png" r:id="rId88"/>
-    <hyperlink ref="C24" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId89"/>
-    <hyperlink ref="E24" display="export_confirm.png" r:id="rId90"/>
-    <hyperlink ref="F24" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId91"/>
-    <hyperlink ref="A25" display="export_progress.png" r:id="rId92"/>
-    <hyperlink ref="C25" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId93"/>
-    <hyperlink ref="E25" display="export_progress.png" r:id="rId94"/>
-    <hyperlink ref="F25" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId95"/>
-    <hyperlink ref="A26" display="get_help.png" r:id="rId96"/>
-    <hyperlink ref="C26" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId97"/>
-    <hyperlink ref="E26" display="get_help.png" r:id="rId98"/>
-    <hyperlink ref="F26" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId99"/>
-    <hyperlink ref="A27" display="get_vm.png" r:id="rId100"/>
-    <hyperlink ref="C27" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId101"/>
-    <hyperlink ref="E27" display="get_vm.png" r:id="rId102"/>
-    <hyperlink ref="F27" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId103"/>
-    <hyperlink ref="A28" display="network_warning.png" r:id="rId104"/>
-    <hyperlink ref="C28" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId105"/>
-    <hyperlink ref="E28" display="network_warning.png" r:id="rId106"/>
-    <hyperlink ref="F28" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId107"/>
-    <hyperlink ref="A29" display="new_switch.png" r:id="rId108"/>
-    <hyperlink ref="C29" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId109"/>
-    <hyperlink ref="E29" display="new_switch.png" r:id="rId110"/>
-    <hyperlink ref="F29" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId111"/>
-    <hyperlink ref="A30" display="new_switch_createbutton.png" r:id="rId112"/>
-    <hyperlink ref="C30" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId113"/>
-    <hyperlink ref="E30" display="new_switch_createbutton.png" r:id="rId114"/>
-    <hyperlink ref="F30" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId115"/>
-    <hyperlink ref="A31" display="Pause.png" r:id="rId116"/>
-    <hyperlink ref="C31" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId117"/>
-    <hyperlink ref="A32" display="POSH_CP2.png" r:id="rId118"/>
-    <hyperlink ref="C32" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId119"/>
-    <hyperlink ref="E32" display="POSH_CP2.png" r:id="rId120"/>
-    <hyperlink ref="F32" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId121"/>
-    <hyperlink ref="A33" display="production.png" r:id="rId122"/>
-    <hyperlink ref="C33" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId123"/>
-    <hyperlink ref="E33" display="production.png" r:id="rId124"/>
-    <hyperlink ref="F33" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId125"/>
-    <hyperlink ref="A34" display="production_CheckpointName.png" r:id="rId126"/>
-    <hyperlink ref="C34" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId127"/>
-    <hyperlink ref="E34" display="production_CheckpointName.png" r:id="rId128"/>
-    <hyperlink ref="F34" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId129"/>
-    <hyperlink ref="A35" display="production_complete.png" r:id="rId130"/>
-    <hyperlink ref="C35" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId131"/>
-    <hyperlink ref="E35" display="production_complete.png" r:id="rId132"/>
-    <hyperlink ref="F35" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId133"/>
-    <hyperlink ref="A36" display="production_notepad.png" r:id="rId134"/>
-    <hyperlink ref="C36" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId135"/>
-    <hyperlink ref="E36" display="production_notepad.png" r:id="rId136"/>
-    <hyperlink ref="F36" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId137"/>
-    <hyperlink ref="A37" display="Reset.png" r:id="rId138"/>
-    <hyperlink ref="C37" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId139"/>
-    <hyperlink ref="A38" display="restart_upd.png" r:id="rId140"/>
-    <hyperlink ref="C38" display="14f7db98c0da674b247f404a300b05fdff35f12d.png" r:id="rId141"/>
-    <hyperlink ref="E38" display="restart_upd.png" r:id="rId142"/>
-    <hyperlink ref="F38" display="14f7db98c0da674b247f404a300b05fdff35f12d.png" r:id="rId143"/>
-    <hyperlink ref="A39" display="Revert.png" r:id="rId144"/>
-    <hyperlink ref="C39" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId145"/>
-    <hyperlink ref="A40" display="Save.png" r:id="rId146"/>
-    <hyperlink ref="C40" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId147"/>
-    <hyperlink ref="A41" display="save_standard.png" r:id="rId148"/>
-    <hyperlink ref="C41" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId149"/>
-    <hyperlink ref="E41" display="save_standard.png" r:id="rId150"/>
-    <hyperlink ref="F41" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId151"/>
-    <hyperlink ref="A42" display="Select_Export1.png" r:id="rId152"/>
-    <hyperlink ref="C42" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId153"/>
-    <hyperlink ref="A43" display="share_nic.png" r:id="rId154"/>
-    <hyperlink ref="C43" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId155"/>
-    <hyperlink ref="E43" display="share_nic.png" r:id="rId156"/>
-    <hyperlink ref="F43" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId157"/>
-    <hyperlink ref="A44" display="Shutdown.png" r:id="rId158"/>
-    <hyperlink ref="C44" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId159"/>
-    <hyperlink ref="A45" display="Standard1.png" r:id="rId160"/>
-    <hyperlink ref="C45" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId161"/>
-    <hyperlink ref="A46" display="standard_applied.png" r:id="rId162"/>
-    <hyperlink ref="C46" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId163"/>
-    <hyperlink ref="E46" display="standard_applied.png" r:id="rId164"/>
-    <hyperlink ref="F46" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId165"/>
-    <hyperlink ref="A47" display="standard_applied_notepad.png" r:id="rId166"/>
-    <hyperlink ref="C47" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId167"/>
-    <hyperlink ref="E47" display="standard_applied_notepad.png" r:id="rId168"/>
-    <hyperlink ref="F47" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId169"/>
-    <hyperlink ref="A48" display="standard_complete.png" r:id="rId170"/>
-    <hyperlink ref="C48" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId171"/>
-    <hyperlink ref="E48" display="standard_complete.png" r:id="rId172"/>
-    <hyperlink ref="F48" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId173"/>
-    <hyperlink ref="A49" display="standard_notepad.png" r:id="rId174"/>
-    <hyperlink ref="C49" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId175"/>
-    <hyperlink ref="E49" display="standard_notepad.png" r:id="rId176"/>
-    <hyperlink ref="F49" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId177"/>
-    <hyperlink ref="A50" display="Start.png" r:id="rId178"/>
-    <hyperlink ref="C50" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId179"/>
-    <hyperlink ref="A51" display="SystemInfo_upd.png" r:id="rId180"/>
-    <hyperlink ref="C51" display="c830f164a513bd6125dc1a30f7cf1990e1c9470a.png" r:id="rId181"/>
-    <hyperlink ref="E51" display="SystemInfo_upd.png" r:id="rId182"/>
-    <hyperlink ref="F51" display="c830f164a513bd6125dc1a30f7cf1990e1c9470a.png" r:id="rId183"/>
-    <hyperlink ref="A52" display="Turnoff.png" r:id="rId184"/>
-    <hyperlink ref="C52" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId185"/>
-    <hyperlink ref="A53" display="virtual_switch_manager1.png" r:id="rId186"/>
-    <hyperlink ref="C53" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId187"/>
-    <hyperlink ref="E53" display="virtual_switch_manager1.png" r:id="rId188"/>
-    <hyperlink ref="F53" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId189"/>
-    <hyperlink ref="A54" display="walkthrough.md" r:id="rId190"/>
-    <hyperlink ref="C54" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-cn.xlf" r:id="rId191"/>
-    <hyperlink ref="E54" display="walkthrough.md" r:id="rId192"/>
-    <hyperlink ref="F54" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-cn.xlf" r:id="rId193"/>
-    <hyperlink ref="A55" display="walkthrough_checkpoints.md" r:id="rId194"/>
-    <hyperlink ref="C55" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf" r:id="rId195"/>
-    <hyperlink ref="E55" display="walkthrough_checkpoints.md" r:id="rId196"/>
-    <hyperlink ref="F55" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf" r:id="rId197"/>
-    <hyperlink ref="A56" display="walkthrough_compatibility.md" r:id="rId198"/>
-    <hyperlink ref="C56" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId199"/>
-    <hyperlink ref="E56" display="walkthrough_compatibility.md" r:id="rId200"/>
-    <hyperlink ref="F56" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId201"/>
-    <hyperlink ref="A57" display="walkthrough_create_vm.md" r:id="rId202"/>
-    <hyperlink ref="C57" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId203"/>
-    <hyperlink ref="E57" display="walkthrough_create_vm.md" r:id="rId204"/>
-    <hyperlink ref="F57" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId205"/>
-    <hyperlink ref="A58" display="walkthrough_export_import.md" r:id="rId206"/>
-    <hyperlink ref="C58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-cn.xlf" r:id="rId207"/>
-    <hyperlink ref="E58" display="walkthrough_export_import.md" r:id="rId208"/>
-    <hyperlink ref="F58" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-cn.xlf" r:id="rId209"/>
-    <hyperlink ref="A59" display="walkthrough_install.md" r:id="rId210"/>
-    <hyperlink ref="C59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-cn.xlf" r:id="rId211"/>
-    <hyperlink ref="E59" display="walkthrough_install.md" r:id="rId212"/>
-    <hyperlink ref="F59" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-cn.xlf" r:id="rId213"/>
-    <hyperlink ref="A60" display="walkthrough_powershell.md" r:id="rId214"/>
-    <hyperlink ref="C60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-cn.xlf" r:id="rId215"/>
-    <hyperlink ref="E60" display="walkthrough_powershell.md" r:id="rId216"/>
-    <hyperlink ref="F60" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-cn.xlf" r:id="rId217"/>
-    <hyperlink ref="A61" display="walkthrough_virtual_switch.md" r:id="rId218"/>
-    <hyperlink ref="C61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-cn.xlf" r:id="rId219"/>
-    <hyperlink ref="E61" display="walkthrough_virtual_switch.md" r:id="rId220"/>
-    <hyperlink ref="F61" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-cn.xlf" r:id="rId221"/>
-    <hyperlink ref="A62" display="walkthrough_vmconnect.md" r:id="rId222"/>
-    <hyperlink ref="C62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-cn.xlf" r:id="rId223"/>
-    <hyperlink ref="E62" display="walkthrough_vmconnect.md" r:id="rId224"/>
-    <hyperlink ref="F62" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-cn.xlf" r:id="rId225"/>
-    <hyperlink ref="A63" display="TOC.md" r:id="rId226"/>
-    <hyperlink ref="C63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId227"/>
-    <hyperlink ref="E63" display="TOC.md" r:id="rId228"/>
-    <hyperlink ref="F63" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId229"/>
-    <hyperlink ref="A64" display="checkpoints.md" r:id="rId230"/>
-    <hyperlink ref="C64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-cn.xlf" r:id="rId231"/>
-    <hyperlink ref="E64" display="checkpoints.md" r:id="rId232"/>
-    <hyperlink ref="F64" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-cn.xlf" r:id="rId233"/>
-    <hyperlink ref="A65" display="export_import.md" r:id="rId234"/>
-    <hyperlink ref="C65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-cn.xlf" r:id="rId235"/>
-    <hyperlink ref="E65" display="export_import.md" r:id="rId236"/>
-    <hyperlink ref="F65" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-cn.xlf" r:id="rId237"/>
-    <hyperlink ref="A66" display="HyperVManager-ConnectToHost.PNG" r:id="rId238"/>
-    <hyperlink ref="C66" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId239"/>
-    <hyperlink ref="A67" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId240"/>
-    <hyperlink ref="C67" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId241"/>
-    <hyperlink ref="A68" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId242"/>
-    <hyperlink ref="C68" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId243"/>
-    <hyperlink ref="A69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId244"/>
-    <hyperlink ref="C69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId245"/>
-    <hyperlink ref="E69" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId246"/>
-    <hyperlink ref="F69" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId247"/>
-    <hyperlink ref="A70" display="migrating_vms.md" r:id="rId248"/>
-    <hyperlink ref="C70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-cn.xlf" r:id="rId249"/>
-    <hyperlink ref="E70" display="migrating_vms.md" r:id="rId250"/>
-    <hyperlink ref="F70" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-cn.xlf" r:id="rId251"/>
-    <hyperlink ref="A71" display="remote_host_management.md" r:id="rId252"/>
-    <hyperlink ref="C71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-cn.xlf" r:id="rId253"/>
-    <hyperlink ref="E71" display="remote_host_management.md" r:id="rId254"/>
-    <hyperlink ref="F71" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-cn.xlf" r:id="rId255"/>
-    <hyperlink ref="A72" display="troubleshooting.md" r:id="rId256"/>
-    <hyperlink ref="C72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-cn.xlf" r:id="rId257"/>
-    <hyperlink ref="E72" display="troubleshooting.md" r:id="rId258"/>
-    <hyperlink ref="F72" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-cn.xlf" r:id="rId259"/>
-    <hyperlink ref="A73" display="user_guide_nav.md" r:id="rId260"/>
-    <hyperlink ref="C73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-cn.xlf" r:id="rId261"/>
-    <hyperlink ref="E73" display="user_guide_nav.md" r:id="rId262"/>
-    <hyperlink ref="F73" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-cn.xlf" r:id="rId263"/>
-    <hyperlink ref="A74" display="vmsession.md" r:id="rId264"/>
-    <hyperlink ref="C74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId265"/>
-    <hyperlink ref="E74" display="vmsession.md" r:id="rId266"/>
-    <hyperlink ref="F74" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId267"/>
-    <hyperlink ref="A75" display="windows_welcome_new.md" r:id="rId268"/>
-    <hyperlink ref="C75" display="windows_welcome_new.7f23ab90b609bd894e638ebac56e2bc04c35f245.zh-cn.xlf" r:id="rId269"/>
-    <hyperlink ref="E75" display="windows_welcome_new.md" r:id="rId270"/>
-    <hyperlink ref="F75" display="windows_welcome_new.7f23ab90b609bd894e638ebac56e2bc04c35f245.zh-cn.xlf" r:id="rId271"/>
-    <hyperlink ref="A76" display="about_overview.md" r:id="rId272"/>
-    <hyperlink ref="C76" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId273"/>
-    <hyperlink ref="E76" display="about_overview.md" r:id="rId274"/>
-    <hyperlink ref="F76" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId275"/>
-    <hyperlink ref="A77" display="container_ecosystem.md" r:id="rId276"/>
-    <hyperlink ref="C77" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId277"/>
-    <hyperlink ref="E77" display="container_ecosystem.md" r:id="rId278"/>
-    <hyperlink ref="F77" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId279"/>
-    <hyperlink ref="A78" display="faq.md" r:id="rId280"/>
-    <hyperlink ref="C78" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId281"/>
-    <hyperlink ref="E78" display="faq.md" r:id="rId282"/>
-    <hyperlink ref="F78" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId283"/>
-    <hyperlink ref="A79" display="containerEcosystem.png" r:id="rId284"/>
-    <hyperlink ref="C79" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId285"/>
-    <hyperlink ref="E79" display="containerEcosystem.png" r:id="rId286"/>
-    <hyperlink ref="F79" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId287"/>
-    <hyperlink ref="A80" display="containerfund.png" r:id="rId288"/>
-    <hyperlink ref="C80" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId289"/>
-    <hyperlink ref="E80" display="containerfund.png" r:id="rId290"/>
-    <hyperlink ref="F80" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId291"/>
-    <hyperlink ref="A81" display="work_in_progress.md" r:id="rId292"/>
-    <hyperlink ref="C81" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId293"/>
-    <hyperlink ref="E81" display="work_in_progress.md" r:id="rId294"/>
-    <hyperlink ref="F81" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId295"/>
-    <hyperlink ref="A82" display="containers_welcome.md" r:id="rId296"/>
-    <hyperlink ref="C82" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId297"/>
-    <hyperlink ref="E82" display="containers_welcome.md" r:id="rId298"/>
-    <hyperlink ref="F82" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId299"/>
-    <hyperlink ref="A83" display="EULA.md" r:id="rId300"/>
-    <hyperlink ref="C83" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId301"/>
-    <hyperlink ref="E83" display="EULA.md" r:id="rId302"/>
-    <hyperlink ref="F83" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId303"/>
-    <hyperlink ref="A84" display="1.png" r:id="rId304"/>
-    <hyperlink ref="C84" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId305"/>
-    <hyperlink ref="A85" display="Chat_65.png" r:id="rId306"/>
-    <hyperlink ref="C85" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId307"/>
-    <hyperlink ref="A86" display="explore.png" r:id="rId308"/>
-    <hyperlink ref="C86" display="367d56d6ba500771f4a03e2296eca6bb079d891e.png" r:id="rId309"/>
-    <hyperlink ref="A87" display="MeetsRequirements_65.png" r:id="rId310"/>
-    <hyperlink ref="C87" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId311"/>
-    <hyperlink ref="A88" display="question.png" r:id="rId312"/>
-    <hyperlink ref="C88" display="7de8389ab2b14e0926c142bf61be560037fc2658.png" r:id="rId313"/>
-    <hyperlink ref="A89" display="try.png" r:id="rId314"/>
-    <hyperlink ref="C89" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId315"/>
-    <hyperlink ref="A90" display="azure_setup.md" r:id="rId316"/>
-    <hyperlink ref="C90" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId317"/>
-    <hyperlink ref="E90" display="azure_setup.md" r:id="rId318"/>
-    <hyperlink ref="F90" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId319"/>
-    <hyperlink ref="A91" display="container_setup.md" r:id="rId320"/>
-    <hyperlink ref="C91" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId321"/>
-    <hyperlink ref="E91" display="container_setup.md" r:id="rId322"/>
-    <hyperlink ref="F91" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId323"/>
-    <hyperlink ref="A92" display="inplace_setup.md" r:id="rId324"/>
-    <hyperlink ref="C92" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId325"/>
-    <hyperlink ref="E92" display="inplace_setup.md" r:id="rId326"/>
-    <hyperlink ref="F92" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId327"/>
-    <hyperlink ref="A93" display="manage_docker.md" r:id="rId328"/>
-    <hyperlink ref="C93" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId329"/>
-    <hyperlink ref="E93" display="manage_docker.md" r:id="rId330"/>
-    <hyperlink ref="F93" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId331"/>
-    <hyperlink ref="A94" display="cmd.png" r:id="rId332"/>
-    <hyperlink ref="C94" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId333"/>
-    <hyperlink ref="E94" display="cmd.png" r:id="rId334"/>
-    <hyperlink ref="F94" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId335"/>
-    <hyperlink ref="A95" display="containerhost2.png" r:id="rId336"/>
-    <hyperlink ref="C95" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId337"/>
-    <hyperlink ref="E95" display="containerhost2.png" r:id="rId338"/>
-    <hyperlink ref="F95" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId339"/>
-    <hyperlink ref="A96" display="docker1.png" r:id="rId340"/>
-    <hyperlink ref="C96" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId341"/>
-    <hyperlink ref="E96" display="docker1.png" r:id="rId342"/>
-    <hyperlink ref="F96" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId343"/>
-    <hyperlink ref="A97" display="docker3.png" r:id="rId344"/>
-    <hyperlink ref="C97" display="58fe536c6f34f55b3eabf6cb1812b3df0aa275b5.png" r:id="rId345"/>
-    <hyperlink ref="E97" display="docker3.png" r:id="rId346"/>
-    <hyperlink ref="F97" display="58fe536c6f34f55b3eabf6cb1812b3df0aa275b5.png" r:id="rId347"/>
-    <hyperlink ref="A98" display="hello.png" r:id="rId348"/>
-    <hyperlink ref="C98" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId349"/>
-    <hyperlink ref="E98" display="hello.png" r:id="rId350"/>
-    <hyperlink ref="F98" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId351"/>
-    <hyperlink ref="A99" display="newazure1.png" r:id="rId352"/>
-    <hyperlink ref="C99" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId353"/>
-    <hyperlink ref="E99" display="newazure1.png" r:id="rId354"/>
-    <hyperlink ref="F99" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId355"/>
-    <hyperlink ref="A100" display="newazure2.png" r:id="rId356"/>
-    <hyperlink ref="C100" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId357"/>
-    <hyperlink ref="E100" display="newazure2.png" r:id="rId358"/>
-    <hyperlink ref="F100" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId359"/>
-    <hyperlink ref="A101" display="newazure3.png" r:id="rId360"/>
-    <hyperlink ref="C101" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId361"/>
-    <hyperlink ref="E101" display="newazure3.png" r:id="rId362"/>
-    <hyperlink ref="F101" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId363"/>
-    <hyperlink ref="A102" display="newazure6.png" r:id="rId364"/>
-    <hyperlink ref="C102" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId365"/>
-    <hyperlink ref="E102" display="newazure6.png" r:id="rId366"/>
-    <hyperlink ref="F102" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId367"/>
-    <hyperlink ref="A103" display="newazure7.png" r:id="rId368"/>
-    <hyperlink ref="C103" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId369"/>
-    <hyperlink ref="E103" display="newazure7.png" r:id="rId370"/>
-    <hyperlink ref="F103" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId371"/>
-    <hyperlink ref="A104" display="newazure9.png" r:id="rId372"/>
-    <hyperlink ref="C104" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId373"/>
-    <hyperlink ref="E104" display="newazure9.png" r:id="rId374"/>
-    <hyperlink ref="F104" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId375"/>
-    <hyperlink ref="A105" display="nginx.png" r:id="rId376"/>
-    <hyperlink ref="C105" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId377"/>
-    <hyperlink ref="E105" display="nginx.png" r:id="rId378"/>
-    <hyperlink ref="F105" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId379"/>
-    <hyperlink ref="A106" display="quickstart.md" r:id="rId380"/>
-    <hyperlink ref="C106" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId381"/>
-    <hyperlink ref="E106" display="quickstart.md" r:id="rId382"/>
-    <hyperlink ref="F106" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId383"/>
-    <hyperlink ref="A107" display="app_compat.md" r:id="rId384"/>
-    <hyperlink ref="C107" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId385"/>
-    <hyperlink ref="E107" display="app_compat.md" r:id="rId386"/>
-    <hyperlink ref="F107" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId387"/>
-    <hyperlink ref="A108" display="powershell_overview.md" r:id="rId388"/>
-    <hyperlink ref="C108" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId389"/>
-    <hyperlink ref="E108" display="powershell_overview.md" r:id="rId390"/>
-    <hyperlink ref="F108" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId391"/>
-    <hyperlink ref="A109" display="ps_docker_comparison.md" r:id="rId392"/>
-    <hyperlink ref="C109" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId393"/>
-    <hyperlink ref="E109" display="ps_docker_comparison.md" r:id="rId394"/>
-    <hyperlink ref="F109" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId395"/>
-    <hyperlink ref="A110" display="TOC.md" r:id="rId396"/>
-    <hyperlink ref="C110" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId397"/>
-    <hyperlink ref="E110" display="TOC.md" r:id="rId398"/>
-    <hyperlink ref="F110" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId399"/>
-    <hyperlink ref="A111" display="supported_guest_ms.md" r:id="rId400"/>
-    <hyperlink ref="C111" display="supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-cn.xlf" r:id="rId401"/>
-    <hyperlink ref="E111" display="supported_guest_ms.md" r:id="rId402"/>
-    <hyperlink ref="F111" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-cn.xlf" r:id="rId403"/>
+    <hyperlink ref="A4" display="supported_guest_ms.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="supported_guest_ms.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="whats_new_nov.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="whats_new_nov.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="make_mgmt_service_test.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="make_mgmt_service_test.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId22"/>
+    <hyperlink ref="C7" display="8489e1cb35de12a7cc54a8c1b29f40672eaac851.png" r:id="rId23"/>
+    <hyperlink ref="E7" display="All_ContentTypeIcons_VisualWalkthrough_65.png" r:id="rId24"/>
+    <hyperlink ref="F7" display="8489e1cb35de12a7cc54a8c1b29f40672eaac851.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="Chat_65.png" r:id="rId26"/>
+    <hyperlink ref="C8" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId27"/>
+    <hyperlink ref="E8" display="Chat_65.png" r:id="rId28"/>
+    <hyperlink ref="F8" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId29"/>
+    <hyperlink ref="A9" display="MeetsRequirements_65.png" r:id="rId30"/>
+    <hyperlink ref="C9" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId31"/>
+    <hyperlink ref="E9" display="1.png" r:id="rId32"/>
+    <hyperlink ref="F9" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId33"/>
+    <hyperlink ref="A10" display="whats_new - Copy.png" r:id="rId34"/>
+    <hyperlink ref="C10" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId35"/>
+    <hyperlink ref="A11" display="whats_new.png" r:id="rId36"/>
+    <hyperlink ref="C11" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId37"/>
+    <hyperlink ref="E11" display="whats_new.png" r:id="rId38"/>
+    <hyperlink ref="F11" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId39"/>
+    <hyperlink ref="A12" display="after_delete.png" r:id="rId40"/>
+    <hyperlink ref="C12" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId41"/>
+    <hyperlink ref="E12" display="after_delete.png" r:id="rId42"/>
+    <hyperlink ref="F12" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId43"/>
+    <hyperlink ref="A13" display="apply_standard.png" r:id="rId44"/>
+    <hyperlink ref="C13" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId45"/>
+    <hyperlink ref="E13" display="apply_standard.png" r:id="rId46"/>
+    <hyperlink ref="F13" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId47"/>
+    <hyperlink ref="A14" display="basic.png" r:id="rId48"/>
+    <hyperlink ref="C14" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId49"/>
+    <hyperlink ref="E14" display="basic.png" r:id="rId50"/>
+    <hyperlink ref="F14" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId51"/>
+    <hyperlink ref="A15" display="checkpoint.png" r:id="rId52"/>
+    <hyperlink ref="C15" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId53"/>
+    <hyperlink ref="E15" display="checkpoint.png" r:id="rId54"/>
+    <hyperlink ref="F15" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId55"/>
+    <hyperlink ref="A16" display="checkpoint_button.png" r:id="rId56"/>
+    <hyperlink ref="C16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId57"/>
+    <hyperlink ref="E16" display="checkpoint_button.png" r:id="rId58"/>
+    <hyperlink ref="F16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId59"/>
+    <hyperlink ref="A17" display="click_export.png" r:id="rId60"/>
+    <hyperlink ref="C17" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId61"/>
+    <hyperlink ref="E17" display="click_export.png" r:id="rId62"/>
+    <hyperlink ref="F17" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId63"/>
+    <hyperlink ref="A18" display="command_grid.png" r:id="rId64"/>
+    <hyperlink ref="C18" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId65"/>
+    <hyperlink ref="E18" display="command_grid.png" r:id="rId66"/>
+    <hyperlink ref="F18" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId67"/>
+    <hyperlink ref="A19" display="ctrlaltdel.png" r:id="rId68"/>
+    <hyperlink ref="C19" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId69"/>
+    <hyperlink ref="E19" display="ctrlaltdel.png" r:id="rId70"/>
+    <hyperlink ref="F19" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId71"/>
+    <hyperlink ref="A20" display="delete_checkpoint.png" r:id="rId72"/>
+    <hyperlink ref="C20" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId73"/>
+    <hyperlink ref="E20" display="delete_checkpoint.png" r:id="rId74"/>
+    <hyperlink ref="F20" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId75"/>
+    <hyperlink ref="A21" display="delete_me.png" r:id="rId76"/>
+    <hyperlink ref="C21" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId77"/>
+    <hyperlink ref="E21" display="delete_me.png" r:id="rId78"/>
+    <hyperlink ref="F21" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId79"/>
+    <hyperlink ref="A22" display="delete_warn.png" r:id="rId80"/>
+    <hyperlink ref="C22" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId81"/>
+    <hyperlink ref="E22" display="delete_warn.png" r:id="rId82"/>
+    <hyperlink ref="F22" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId83"/>
+    <hyperlink ref="A23" display="dism_upd.png" r:id="rId84"/>
+    <hyperlink ref="C23" display="a303041e7915293e2affe84599cab647d43119a8.png" r:id="rId85"/>
+    <hyperlink ref="E23" display="dism_upd.png" r:id="rId86"/>
+    <hyperlink ref="F23" display="a303041e7915293e2affe84599cab647d43119a8.png" r:id="rId87"/>
+    <hyperlink ref="A24" display="enable_role_upd.png" r:id="rId88"/>
+    <hyperlink ref="C24" display="1323985a77d40a39f3191207c703e3b426a55795.png" r:id="rId89"/>
+    <hyperlink ref="E24" display="enable_role_upd.png" r:id="rId90"/>
+    <hyperlink ref="F24" display="1323985a77d40a39f3191207c703e3b426a55795.png" r:id="rId91"/>
+    <hyperlink ref="A25" display="export_confirm.png" r:id="rId92"/>
+    <hyperlink ref="C25" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId93"/>
+    <hyperlink ref="E25" display="export_confirm.png" r:id="rId94"/>
+    <hyperlink ref="F25" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId95"/>
+    <hyperlink ref="A26" display="export_progress.png" r:id="rId96"/>
+    <hyperlink ref="C26" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId97"/>
+    <hyperlink ref="E26" display="export_progress.png" r:id="rId98"/>
+    <hyperlink ref="F26" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId99"/>
+    <hyperlink ref="A27" display="get_help.png" r:id="rId100"/>
+    <hyperlink ref="C27" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId101"/>
+    <hyperlink ref="E27" display="get_help.png" r:id="rId102"/>
+    <hyperlink ref="F27" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId103"/>
+    <hyperlink ref="A28" display="get_vm.png" r:id="rId104"/>
+    <hyperlink ref="C28" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId105"/>
+    <hyperlink ref="E28" display="get_vm.png" r:id="rId106"/>
+    <hyperlink ref="F28" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId107"/>
+    <hyperlink ref="A29" display="network_warning.png" r:id="rId108"/>
+    <hyperlink ref="C29" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId109"/>
+    <hyperlink ref="E29" display="network_warning.png" r:id="rId110"/>
+    <hyperlink ref="F29" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId111"/>
+    <hyperlink ref="A30" display="new_switch.png" r:id="rId112"/>
+    <hyperlink ref="C30" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId113"/>
+    <hyperlink ref="E30" display="new_switch.png" r:id="rId114"/>
+    <hyperlink ref="F30" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId115"/>
+    <hyperlink ref="A31" display="new_switch_createbutton.png" r:id="rId116"/>
+    <hyperlink ref="C31" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId117"/>
+    <hyperlink ref="E31" display="new_switch_createbutton.png" r:id="rId118"/>
+    <hyperlink ref="F31" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId119"/>
+    <hyperlink ref="A32" display="Pause.png" r:id="rId120"/>
+    <hyperlink ref="C32" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId121"/>
+    <hyperlink ref="A33" display="POSH_CP2.png" r:id="rId122"/>
+    <hyperlink ref="C33" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId123"/>
+    <hyperlink ref="E33" display="POSH_CP2.png" r:id="rId124"/>
+    <hyperlink ref="F33" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId125"/>
+    <hyperlink ref="A34" display="production.png" r:id="rId126"/>
+    <hyperlink ref="C34" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId127"/>
+    <hyperlink ref="E34" display="production.png" r:id="rId128"/>
+    <hyperlink ref="F34" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId129"/>
+    <hyperlink ref="A35" display="production_CheckpointName.png" r:id="rId130"/>
+    <hyperlink ref="C35" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId131"/>
+    <hyperlink ref="E35" display="production_CheckpointName.png" r:id="rId132"/>
+    <hyperlink ref="F35" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId133"/>
+    <hyperlink ref="A36" display="production_complete.png" r:id="rId134"/>
+    <hyperlink ref="C36" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId135"/>
+    <hyperlink ref="E36" display="production_complete.png" r:id="rId136"/>
+    <hyperlink ref="F36" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId137"/>
+    <hyperlink ref="A37" display="production_notepad.png" r:id="rId138"/>
+    <hyperlink ref="C37" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId139"/>
+    <hyperlink ref="E37" display="production_notepad.png" r:id="rId140"/>
+    <hyperlink ref="F37" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId141"/>
+    <hyperlink ref="A38" display="Reset.png" r:id="rId142"/>
+    <hyperlink ref="C38" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId143"/>
+    <hyperlink ref="A39" display="restart_upd.png" r:id="rId144"/>
+    <hyperlink ref="C39" display="14f7db98c0da674b247f404a300b05fdff35f12d.png" r:id="rId145"/>
+    <hyperlink ref="E39" display="restart_upd.png" r:id="rId146"/>
+    <hyperlink ref="F39" display="14f7db98c0da674b247f404a300b05fdff35f12d.png" r:id="rId147"/>
+    <hyperlink ref="A40" display="Revert.png" r:id="rId148"/>
+    <hyperlink ref="C40" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId149"/>
+    <hyperlink ref="A41" display="Save.png" r:id="rId150"/>
+    <hyperlink ref="C41" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId151"/>
+    <hyperlink ref="A42" display="save_standard.png" r:id="rId152"/>
+    <hyperlink ref="C42" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId153"/>
+    <hyperlink ref="E42" display="save_standard.png" r:id="rId154"/>
+    <hyperlink ref="F42" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId155"/>
+    <hyperlink ref="A43" display="Select_Export1.png" r:id="rId156"/>
+    <hyperlink ref="C43" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId157"/>
+    <hyperlink ref="A44" display="share_nic.png" r:id="rId158"/>
+    <hyperlink ref="C44" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId159"/>
+    <hyperlink ref="E44" display="share_nic.png" r:id="rId160"/>
+    <hyperlink ref="F44" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId161"/>
+    <hyperlink ref="A45" display="Shutdown.png" r:id="rId162"/>
+    <hyperlink ref="C45" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId163"/>
+    <hyperlink ref="A46" display="Standard1.png" r:id="rId164"/>
+    <hyperlink ref="C46" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId165"/>
+    <hyperlink ref="A47" display="standard_applied.png" r:id="rId166"/>
+    <hyperlink ref="C47" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId167"/>
+    <hyperlink ref="E47" display="standard_applied.png" r:id="rId168"/>
+    <hyperlink ref="F47" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId169"/>
+    <hyperlink ref="A48" display="standard_applied_notepad.png" r:id="rId170"/>
+    <hyperlink ref="C48" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId171"/>
+    <hyperlink ref="E48" display="standard_applied_notepad.png" r:id="rId172"/>
+    <hyperlink ref="F48" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId173"/>
+    <hyperlink ref="A49" display="standard_complete.png" r:id="rId174"/>
+    <hyperlink ref="C49" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId175"/>
+    <hyperlink ref="E49" display="standard_complete.png" r:id="rId176"/>
+    <hyperlink ref="F49" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId177"/>
+    <hyperlink ref="A50" display="standard_notepad.png" r:id="rId178"/>
+    <hyperlink ref="C50" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId179"/>
+    <hyperlink ref="E50" display="standard_notepad.png" r:id="rId180"/>
+    <hyperlink ref="F50" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId181"/>
+    <hyperlink ref="A51" display="Start.png" r:id="rId182"/>
+    <hyperlink ref="C51" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId183"/>
+    <hyperlink ref="A52" display="SystemInfo_upd.png" r:id="rId184"/>
+    <hyperlink ref="C52" display="c830f164a513bd6125dc1a30f7cf1990e1c9470a.png" r:id="rId185"/>
+    <hyperlink ref="E52" display="SystemInfo_upd.png" r:id="rId186"/>
+    <hyperlink ref="F52" display="c830f164a513bd6125dc1a30f7cf1990e1c9470a.png" r:id="rId187"/>
+    <hyperlink ref="A53" display="Turnoff.png" r:id="rId188"/>
+    <hyperlink ref="C53" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId189"/>
+    <hyperlink ref="A54" display="virtual_switch_manager1.png" r:id="rId190"/>
+    <hyperlink ref="C54" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId191"/>
+    <hyperlink ref="E54" display="virtual_switch_manager1.png" r:id="rId192"/>
+    <hyperlink ref="F54" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId193"/>
+    <hyperlink ref="A55" display="walkthrough.md" r:id="rId194"/>
+    <hyperlink ref="C55" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-cn.xlf" r:id="rId195"/>
+    <hyperlink ref="E55" display="walkthrough.md" r:id="rId196"/>
+    <hyperlink ref="F55" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-cn.xlf" r:id="rId197"/>
+    <hyperlink ref="A56" display="walkthrough_checkpoints.md" r:id="rId198"/>
+    <hyperlink ref="C56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf" r:id="rId199"/>
+    <hyperlink ref="E56" display="walkthrough_checkpoints.md" r:id="rId200"/>
+    <hyperlink ref="F56" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-cn.xlf" r:id="rId201"/>
+    <hyperlink ref="A57" display="walkthrough_compatibility.md" r:id="rId202"/>
+    <hyperlink ref="C57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId203"/>
+    <hyperlink ref="E57" display="walkthrough_compatibility.md" r:id="rId204"/>
+    <hyperlink ref="F57" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-cn.xlf" r:id="rId205"/>
+    <hyperlink ref="A58" display="walkthrough_create_vm.md" r:id="rId206"/>
+    <hyperlink ref="C58" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId207"/>
+    <hyperlink ref="E58" display="walkthrough_create_vm.md" r:id="rId208"/>
+    <hyperlink ref="F58" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf" r:id="rId209"/>
+    <hyperlink ref="A59" display="walkthrough_export_import.md" r:id="rId210"/>
+    <hyperlink ref="C59" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-cn.xlf" r:id="rId211"/>
+    <hyperlink ref="E59" display="walkthrough_export_import.md" r:id="rId212"/>
+    <hyperlink ref="F59" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-cn.xlf" r:id="rId213"/>
+    <hyperlink ref="A60" display="walkthrough_install.md" r:id="rId214"/>
+    <hyperlink ref="C60" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-cn.xlf" r:id="rId215"/>
+    <hyperlink ref="E60" display="walkthrough_install.md" r:id="rId216"/>
+    <hyperlink ref="F60" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-cn.xlf" r:id="rId217"/>
+    <hyperlink ref="A61" display="walkthrough_powershell.md" r:id="rId218"/>
+    <hyperlink ref="C61" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-cn.xlf" r:id="rId219"/>
+    <hyperlink ref="E61" display="walkthrough_powershell.md" r:id="rId220"/>
+    <hyperlink ref="F61" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-cn.xlf" r:id="rId221"/>
+    <hyperlink ref="A62" display="walkthrough_virtual_switch.md" r:id="rId222"/>
+    <hyperlink ref="C62" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-cn.xlf" r:id="rId223"/>
+    <hyperlink ref="E62" display="walkthrough_virtual_switch.md" r:id="rId224"/>
+    <hyperlink ref="F62" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-cn.xlf" r:id="rId225"/>
+    <hyperlink ref="A63" display="walkthrough_vmconnect.md" r:id="rId226"/>
+    <hyperlink ref="C63" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-cn.xlf" r:id="rId227"/>
+    <hyperlink ref="E63" display="walkthrough_vmconnect.md" r:id="rId228"/>
+    <hyperlink ref="F63" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-cn.xlf" r:id="rId229"/>
+    <hyperlink ref="A64" display="TOC.md" r:id="rId230"/>
+    <hyperlink ref="C64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId231"/>
+    <hyperlink ref="E64" display="TOC.md" r:id="rId232"/>
+    <hyperlink ref="F64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-cn.xlf" r:id="rId233"/>
+    <hyperlink ref="A65" display="checkpoints.md" r:id="rId234"/>
+    <hyperlink ref="C65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-cn.xlf" r:id="rId235"/>
+    <hyperlink ref="E65" display="checkpoints.md" r:id="rId236"/>
+    <hyperlink ref="F65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-cn.xlf" r:id="rId237"/>
+    <hyperlink ref="A66" display="export_import.md" r:id="rId238"/>
+    <hyperlink ref="C66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-cn.xlf" r:id="rId239"/>
+    <hyperlink ref="E66" display="export_import.md" r:id="rId240"/>
+    <hyperlink ref="F66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-cn.xlf" r:id="rId241"/>
+    <hyperlink ref="A67" display="HyperVManager-ConnectToHost.PNG" r:id="rId242"/>
+    <hyperlink ref="C67" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId243"/>
+    <hyperlink ref="A68" display="HyperVManager-ConnectToLocalHost.PNG" r:id="rId244"/>
+    <hyperlink ref="C68" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId245"/>
+    <hyperlink ref="A69" display="HyperVManager-ConnectToRemoteHost.PNG" r:id="rId246"/>
+    <hyperlink ref="C69" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId247"/>
+    <hyperlink ref="A70" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId248"/>
+    <hyperlink ref="C70" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId249"/>
+    <hyperlink ref="E70" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId250"/>
+    <hyperlink ref="F70" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId251"/>
+    <hyperlink ref="A71" display="migrating_vms.md" r:id="rId252"/>
+    <hyperlink ref="C71" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-cn.xlf" r:id="rId253"/>
+    <hyperlink ref="E71" display="migrating_vms.md" r:id="rId254"/>
+    <hyperlink ref="F71" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-cn.xlf" r:id="rId255"/>
+    <hyperlink ref="A72" display="remote_host_management.md" r:id="rId256"/>
+    <hyperlink ref="C72" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-cn.xlf" r:id="rId257"/>
+    <hyperlink ref="E72" display="remote_host_management.md" r:id="rId258"/>
+    <hyperlink ref="F72" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-cn.xlf" r:id="rId259"/>
+    <hyperlink ref="A73" display="troubleshooting.md" r:id="rId260"/>
+    <hyperlink ref="C73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-cn.xlf" r:id="rId261"/>
+    <hyperlink ref="E73" display="troubleshooting.md" r:id="rId262"/>
+    <hyperlink ref="F73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-cn.xlf" r:id="rId263"/>
+    <hyperlink ref="A74" display="user_guide_nav.md" r:id="rId264"/>
+    <hyperlink ref="C74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-cn.xlf" r:id="rId265"/>
+    <hyperlink ref="E74" display="user_guide_nav.md" r:id="rId266"/>
+    <hyperlink ref="F74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-cn.xlf" r:id="rId267"/>
+    <hyperlink ref="A75" display="vmsession.md" r:id="rId268"/>
+    <hyperlink ref="C75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId269"/>
+    <hyperlink ref="E75" display="vmsession.md" r:id="rId270"/>
+    <hyperlink ref="F75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-cn.xlf" r:id="rId271"/>
+    <hyperlink ref="A76" display="windows_welcome_new.md" r:id="rId272"/>
+    <hyperlink ref="C76" display="windows_welcome_new.7f23ab90b609bd894e638ebac56e2bc04c35f245.zh-cn.xlf" r:id="rId273"/>
+    <hyperlink ref="E76" display="windows_welcome_new.md" r:id="rId274"/>
+    <hyperlink ref="F76" display="windows_welcome_new.7f23ab90b609bd894e638ebac56e2bc04c35f245.zh-cn.xlf" r:id="rId275"/>
+    <hyperlink ref="A77" display="about_overview.md" r:id="rId276"/>
+    <hyperlink ref="C77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId277"/>
+    <hyperlink ref="E77" display="about_overview.md" r:id="rId278"/>
+    <hyperlink ref="F77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-cn.xlf" r:id="rId279"/>
+    <hyperlink ref="A78" display="container_ecosystem.md" r:id="rId280"/>
+    <hyperlink ref="C78" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId281"/>
+    <hyperlink ref="E78" display="container_ecosystem.md" r:id="rId282"/>
+    <hyperlink ref="F78" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-cn.xlf" r:id="rId283"/>
+    <hyperlink ref="A79" display="faq.md" r:id="rId284"/>
+    <hyperlink ref="C79" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId285"/>
+    <hyperlink ref="E79" display="faq.md" r:id="rId286"/>
+    <hyperlink ref="F79" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-cn.xlf" r:id="rId287"/>
+    <hyperlink ref="A80" display="containerEcosystem.png" r:id="rId288"/>
+    <hyperlink ref="C80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId289"/>
+    <hyperlink ref="E80" display="containerEcosystem.png" r:id="rId290"/>
+    <hyperlink ref="F80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId291"/>
+    <hyperlink ref="A81" display="containerfund.png" r:id="rId292"/>
+    <hyperlink ref="C81" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId293"/>
+    <hyperlink ref="E81" display="containerfund.png" r:id="rId294"/>
+    <hyperlink ref="F81" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId295"/>
+    <hyperlink ref="A82" display="work_in_progress.md" r:id="rId296"/>
+    <hyperlink ref="C82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId297"/>
+    <hyperlink ref="E82" display="work_in_progress.md" r:id="rId298"/>
+    <hyperlink ref="F82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-cn.xlf" r:id="rId299"/>
+    <hyperlink ref="A83" display="containers_welcome.md" r:id="rId300"/>
+    <hyperlink ref="C83" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId301"/>
+    <hyperlink ref="E83" display="containers_welcome.md" r:id="rId302"/>
+    <hyperlink ref="F83" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-cn.xlf" r:id="rId303"/>
+    <hyperlink ref="A84" display="EULA.md" r:id="rId304"/>
+    <hyperlink ref="C84" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId305"/>
+    <hyperlink ref="E84" display="EULA.md" r:id="rId306"/>
+    <hyperlink ref="F84" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-cn.xlf" r:id="rId307"/>
+    <hyperlink ref="A85" display="1.png" r:id="rId308"/>
+    <hyperlink ref="C85" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId309"/>
+    <hyperlink ref="A86" display="Chat_65.png" r:id="rId310"/>
+    <hyperlink ref="C86" display="f8028372876eb8d38fb4571b18bdc30585c95087.png" r:id="rId311"/>
+    <hyperlink ref="A87" display="explore.png" r:id="rId312"/>
+    <hyperlink ref="C87" display="367d56d6ba500771f4a03e2296eca6bb079d891e.png" r:id="rId313"/>
+    <hyperlink ref="A88" display="MeetsRequirements_65.png" r:id="rId314"/>
+    <hyperlink ref="C88" display="215adae041390b1edb10b314dc7ce21f6b39592e.png" r:id="rId315"/>
+    <hyperlink ref="A89" display="question.png" r:id="rId316"/>
+    <hyperlink ref="C89" display="7de8389ab2b14e0926c142bf61be560037fc2658.png" r:id="rId317"/>
+    <hyperlink ref="A90" display="try.png" r:id="rId318"/>
+    <hyperlink ref="C90" display="7244a1a0ddcebfe36147f05577bceb7671592b96.png" r:id="rId319"/>
+    <hyperlink ref="A91" display="azure_setup.md" r:id="rId320"/>
+    <hyperlink ref="C91" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId321"/>
+    <hyperlink ref="E91" display="azure_setup.md" r:id="rId322"/>
+    <hyperlink ref="F91" display="azure_setup.efbdfa56db2e296be3a4b34d7841c826cfcc65b5.zh-cn.xlf" r:id="rId323"/>
+    <hyperlink ref="A92" display="container_setup.md" r:id="rId324"/>
+    <hyperlink ref="C92" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId325"/>
+    <hyperlink ref="E92" display="container_setup.md" r:id="rId326"/>
+    <hyperlink ref="F92" display="container_setup.08ea6a3e6a859d063eb84a0b25eb20db0b7bdd52.zh-cn.xlf" r:id="rId327"/>
+    <hyperlink ref="A93" display="inplace_setup.md" r:id="rId328"/>
+    <hyperlink ref="C93" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId329"/>
+    <hyperlink ref="E93" display="inplace_setup.md" r:id="rId330"/>
+    <hyperlink ref="F93" display="inplace_setup.e4aa715ee9e809ad5bdf64eb7862fe63ef473bf2.zh-cn.xlf" r:id="rId331"/>
+    <hyperlink ref="A94" display="manage_docker.md" r:id="rId332"/>
+    <hyperlink ref="C94" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId333"/>
+    <hyperlink ref="E94" display="manage_docker.md" r:id="rId334"/>
+    <hyperlink ref="F94" display="manage_docker.d8787c7831358fa02dcde847d887fa29a1767ee5.zh-cn.xlf" r:id="rId335"/>
+    <hyperlink ref="A95" display="cmd.png" r:id="rId336"/>
+    <hyperlink ref="C95" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId337"/>
+    <hyperlink ref="E95" display="cmd.png" r:id="rId338"/>
+    <hyperlink ref="F95" display="381c1908855b7bfb04cda840a0792a563345b1a8.png" r:id="rId339"/>
+    <hyperlink ref="A96" display="containerhost2.png" r:id="rId340"/>
+    <hyperlink ref="C96" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId341"/>
+    <hyperlink ref="E96" display="containerhost2.png" r:id="rId342"/>
+    <hyperlink ref="F96" display="439993aa3c0ae15d11beb2046585c1bb19629c87.png" r:id="rId343"/>
+    <hyperlink ref="A97" display="docker1.png" r:id="rId344"/>
+    <hyperlink ref="C97" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId345"/>
+    <hyperlink ref="E97" display="docker1.png" r:id="rId346"/>
+    <hyperlink ref="F97" display="09f8ea3c577b2683ba069e9b197ef3f5c9681ead.png" r:id="rId347"/>
+    <hyperlink ref="A98" display="docker3.png" r:id="rId348"/>
+    <hyperlink ref="C98" display="58fe536c6f34f55b3eabf6cb1812b3df0aa275b5.png" r:id="rId349"/>
+    <hyperlink ref="E98" display="docker3.png" r:id="rId350"/>
+    <hyperlink ref="F98" display="58fe536c6f34f55b3eabf6cb1812b3df0aa275b5.png" r:id="rId351"/>
+    <hyperlink ref="A99" display="hello.png" r:id="rId352"/>
+    <hyperlink ref="C99" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId353"/>
+    <hyperlink ref="E99" display="hello.png" r:id="rId354"/>
+    <hyperlink ref="F99" display="19c1070cee496d52eba1b2ce80f4f939edccdffd.png" r:id="rId355"/>
+    <hyperlink ref="A100" display="newazure1.png" r:id="rId356"/>
+    <hyperlink ref="C100" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId357"/>
+    <hyperlink ref="E100" display="newazure1.png" r:id="rId358"/>
+    <hyperlink ref="F100" display="1727f8f50a45ba27cbd0854ad59b26ad639f9e6f.png" r:id="rId359"/>
+    <hyperlink ref="A101" display="newazure2.png" r:id="rId360"/>
+    <hyperlink ref="C101" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId361"/>
+    <hyperlink ref="E101" display="newazure2.png" r:id="rId362"/>
+    <hyperlink ref="F101" display="763c92da0f923fce31efd828797c46d750a5464b.png" r:id="rId363"/>
+    <hyperlink ref="A102" display="newazure3.png" r:id="rId364"/>
+    <hyperlink ref="C102" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId365"/>
+    <hyperlink ref="E102" display="newazure3.png" r:id="rId366"/>
+    <hyperlink ref="F102" display="f34159504927f72f5ef7ccfc8e34ff53c0bec230.png" r:id="rId367"/>
+    <hyperlink ref="A103" display="newazure6.png" r:id="rId368"/>
+    <hyperlink ref="C103" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId369"/>
+    <hyperlink ref="E103" display="newazure6.png" r:id="rId370"/>
+    <hyperlink ref="F103" display="fccb0dc2730588ddf6851ad3189dd6dd4dc06b74.png" r:id="rId371"/>
+    <hyperlink ref="A104" display="newazure7.png" r:id="rId372"/>
+    <hyperlink ref="C104" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId373"/>
+    <hyperlink ref="E104" display="newazure7.png" r:id="rId374"/>
+    <hyperlink ref="F104" display="ac6168b0f3d4e8b2044dd10d1dba101e2290f1d8.png" r:id="rId375"/>
+    <hyperlink ref="A105" display="newazure9.png" r:id="rId376"/>
+    <hyperlink ref="C105" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId377"/>
+    <hyperlink ref="E105" display="newazure9.png" r:id="rId378"/>
+    <hyperlink ref="F105" display="530bd64d6f6f4ac321bc8a76d9c1b990b2ab338c.png" r:id="rId379"/>
+    <hyperlink ref="A106" display="nginx.png" r:id="rId380"/>
+    <hyperlink ref="C106" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId381"/>
+    <hyperlink ref="E106" display="nginx.png" r:id="rId382"/>
+    <hyperlink ref="F106" display="a9f175f23fed1475c227ec1af2c524c918024bc4.png" r:id="rId383"/>
+    <hyperlink ref="A107" display="quickstart.md" r:id="rId384"/>
+    <hyperlink ref="C107" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId385"/>
+    <hyperlink ref="E107" display="quickstart.md" r:id="rId386"/>
+    <hyperlink ref="F107" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-cn.xlf" r:id="rId387"/>
+    <hyperlink ref="A108" display="app_compat.md" r:id="rId388"/>
+    <hyperlink ref="C108" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId389"/>
+    <hyperlink ref="E108" display="app_compat.md" r:id="rId390"/>
+    <hyperlink ref="F108" display="app_compat.85ea42fd0d23543a8fad7596dfdec7699ec15654.zh-cn.xlf" r:id="rId391"/>
+    <hyperlink ref="A109" display="powershell_overview.md" r:id="rId392"/>
+    <hyperlink ref="C109" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId393"/>
+    <hyperlink ref="E109" display="powershell_overview.md" r:id="rId394"/>
+    <hyperlink ref="F109" display="powershell_overview.7ebafcad4de4a5898fad700336a72f88d4aa8cb0.zh-cn.xlf" r:id="rId395"/>
+    <hyperlink ref="A110" display="ps_docker_comparison.md" r:id="rId396"/>
+    <hyperlink ref="C110" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId397"/>
+    <hyperlink ref="E110" display="ps_docker_comparison.md" r:id="rId398"/>
+    <hyperlink ref="F110" display="ps_docker_comparison.ebee670390084537f2252c760f11eefb8de5efa5.zh-cn.xlf" r:id="rId399"/>
+    <hyperlink ref="A111" display="TOC.md" r:id="rId400"/>
+    <hyperlink ref="C111" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId401"/>
+    <hyperlink ref="E111" display="TOC.md" r:id="rId402"/>
+    <hyperlink ref="F111" display="TOC.13173dbdc376543cb6eb74ef16484f39c0ef0fdb.zh-cn.xlf" r:id="rId403"/>
     <hyperlink ref="A112" display="community_overview.md" r:id="rId404"/>
     <hyperlink ref="C112" display="community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf" r:id="rId405"/>
     <hyperlink ref="E112" display="community_overview.md" r:id="rId406"/>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1274,7 +1274,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:12:59</t>
+    <t>2016-02-10 20:31:59</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf</t>
@@ -1490,7 +1490,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:13:23</t>
+    <t>2016-02-10 20:32:14</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.de-de.xlf</t>
@@ -1646,7 +1646,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:13:40</t>
+    <t>2016-02-10 20:32:26</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.fr-fr.xlf</t>
@@ -1802,7 +1802,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:13:56</t>
+    <t>2016-02-10 20:32:39</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-cn.xlf</t>
@@ -1958,7 +1958,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:14:08</t>
+    <t>2016-02-10 20:32:52</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf</t>
@@ -2126,7 +2126,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:14:20</t>
+    <t>2016-02-10 20:33:04</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ko-kr.xlf</t>
@@ -2288,7 +2288,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:14:31</t>
+    <t>2016-02-10 20:33:17</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.es-es.xlf</t>
@@ -2450,7 +2450,7 @@
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-02-10 20:14:44</t>
+    <t>2016-02-10 20:33:36</t>
   </si>
   <si>
     <t>walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1253,7 +1253,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:04:46</t>
+    <t>2016-02-24 19:15:02</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.ja-jp.xlf</t>
@@ -1463,7 +1463,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:05:02</t>
+    <t>2016-02-24 19:15:24</t>
   </si>
   <si>
     <t>2015-11-23 17:52:08</t>
@@ -1628,7 +1628,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:05:20</t>
+    <t>2016-02-24 19:15:45</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.fr-fr.xlf</t>
@@ -1796,7 +1796,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:05:37</t>
+    <t>2016-02-24 19:16:02</t>
   </si>
   <si>
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
@@ -1946,7 +1946,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:05:54</t>
+    <t>2016-02-24 19:16:19</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.zh-tw.xlf</t>
@@ -2117,7 +2117,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:06:12</t>
+    <t>2016-02-24 19:16:35</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.ko-kr.xlf</t>
@@ -2282,7 +2282,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:06:28</t>
+    <t>2016-02-24 19:16:51</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.es-es.xlf</t>
@@ -2447,7 +2447,7 @@
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 20:06:44</t>
+    <t>2016-02-24 19:17:07</t>
   </si>
   <si>
     <t>supported_guest_ms.05a2b6ce4d8734fb3122b672cba0770faa12cdbe.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1277,7 +1277,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:17:12</t>
+    <t>2016-03-03 00:06:47</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.ja-jp.xlf</t>
@@ -1496,7 +1496,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:17:32</t>
+    <t>2016-03-03 00:07:07</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.de-de.xlf</t>
@@ -1667,7 +1667,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:17:51</t>
+    <t>2016-03-03 00:07:26</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.fr-fr.xlf</t>
@@ -1832,7 +1832,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:18:10</t>
+    <t>2016-03-03 00:07:47</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-cn.xlf</t>
@@ -1997,7 +1997,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:18:31</t>
+    <t>2016-03-03 00:08:06</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.zh-tw.xlf</t>
@@ -2174,7 +2174,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:18:50</t>
+    <t>2016-03-03 00:08:26</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.ko-kr.xlf</t>
@@ -2345,7 +2345,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:19:09</t>
+    <t>2016-03-03 00:08:47</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.es-es.xlf</t>
@@ -2516,7 +2516,7 @@
     <t>make_mgmt_service_test.60a5f6ea8f560d274fd98affacf2a5f9da3137f1.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-03-02 19:19:28</t>
+    <t>2016-03-03 00:09:07</t>
   </si>
   <si>
     <t>make_mgmt_service.f08a72226cda804bf52172777630838cf58daa2b.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1268,7 +1268,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:27:21</t>
+    <t>2016-03-10 23:01:56</t>
   </si>
   <si>
     <t>2016-01-26 22:47:40</t>
@@ -1487,7 +1487,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:27:35</t>
+    <t>2016-03-10 23:02:06</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
@@ -1658,7 +1658,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:27:46</t>
+    <t>2016-03-10 23:02:14</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.fr-fr.xlf</t>
@@ -1823,7 +1823,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:27:58</t>
+    <t>2016-03-10 23:02:22</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-cn.xlf</t>
@@ -1988,7 +1988,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:28:11</t>
+    <t>2016-03-10 23:02:30</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
@@ -2165,7 +2165,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:28:23</t>
+    <t>2016-03-10 23:02:39</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ko-kr.xlf</t>
@@ -2336,7 +2336,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:28:37</t>
+    <t>2016-03-10 23:02:47</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.es-es.xlf</t>
@@ -2507,7 +2507,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-02-02 22:28:59</t>
+    <t>2016-03-10 23:02:55</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1268,7 +1268,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:01:56</t>
+    <t>2016-03-10 23:52:01</t>
   </si>
   <si>
     <t>2016-01-26 22:47:40</t>
@@ -1487,7 +1487,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:06</t>
+    <t>2016-03-10 23:53:49</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
@@ -1658,7 +1658,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:14</t>
+    <t>2016-03-10 23:54:32</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.fr-fr.xlf</t>
@@ -1823,7 +1823,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:22</t>
+    <t>2016-03-10 23:55:56</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-cn.xlf</t>
@@ -1988,7 +1988,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:30</t>
+    <t>2016-03-10 23:56:45</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
@@ -2165,7 +2165,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:39</t>
+    <t>2016-03-10 23:57:34</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ko-kr.xlf</t>
@@ -2336,7 +2336,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:47</t>
+    <t>2016-03-10 23:58:14</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.es-es.xlf</t>
@@ -2507,7 +2507,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:02:55</t>
+    <t>2016-03-10 23:59:00</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -1268,7 +1268,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:52:01</t>
+    <t>2016-03-11 00:21:24</t>
   </si>
   <si>
     <t>2016-01-26 22:47:40</t>
@@ -1487,7 +1487,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:53:49</t>
+    <t>2016-03-11 00:21:33</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
@@ -1658,7 +1658,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:54:32</t>
+    <t>2016-03-11 00:21:41</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.fr-fr.xlf</t>
@@ -1823,7 +1823,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:55:56</t>
+    <t>2016-03-11 00:21:49</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-cn.xlf</t>
@@ -1988,7 +1988,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:56:45</t>
+    <t>2016-03-11 00:21:57</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
@@ -2165,7 +2165,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:57:34</t>
+    <t>2016-03-11 00:22:06</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ko-kr.xlf</t>
@@ -2336,7 +2336,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:58:14</t>
+    <t>2016-03-11 00:22:15</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.es-es.xlf</t>
@@ -2507,7 +2507,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-03-10 23:59:00</t>
+    <t>2016-03-11 00:22:23</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -400,7 +400,7 @@
     <t>community_overview.md</t>
   </si>
   <si>
-    <t>2016-52-11 18:52:42</t>
+    <t>2016-02-11 19:02:45</t>
   </si>
   <si>
     <t>make_mgmt_service_test.md</t>
@@ -884,7 +884,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:51:43</t>
+    <t>2016-03-11 19:01:42</t>
   </si>
   <si>
     <t>2016-01-26 22:47:40</t>
@@ -1103,7 +1103,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:51:51</t>
+    <t>2016-03-11 19:01:54</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
@@ -1274,7 +1274,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:51:59</t>
+    <t>2016-03-11 19:02:03</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.fr-fr.xlf</t>
@@ -1439,7 +1439,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:52:08</t>
+    <t>2016-03-11 19:02:12</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-cn.xlf</t>
@@ -1604,7 +1604,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:52:17</t>
+    <t>2016-03-11 19:02:20</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
@@ -1781,7 +1781,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:52:25</t>
+    <t>2016-03-11 19:02:28</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ko-kr.xlf</t>
@@ -1952,7 +1952,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:52:34</t>
+    <t>2016-03-11 19:02:37</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.es-es.xlf</t>
@@ -2123,7 +2123,7 @@
     <t>community_overview.ce517e45719221eec569f55dd38764b6e117cfbb.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 18:52:42</t>
+    <t>2016-03-11 19:02:45</t>
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.it-it.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -397,7 +397,7 @@
     <t>testing.md</t>
   </si>
   <si>
-    <t>2016-06-10 20:44:47</t>
+    <t>2016-06-10 20:54:51</t>
   </si>
   <si>
     <t>powershell_snippets_new.md</t>
@@ -1042,7 +1042,7 @@
     <t>testing.d095caed768f7653f0acd02cfc9446d9d93282e0.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-06-10 20:44:33</t>
+    <t>2016-06-10 20:54:37</t>
   </si>
   <si>
     <t>powershell_snippets_new.45c9d9c49f99a81f8765be81c829ff924ef26b7d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/master/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2016-04-25 19:13:24</t>
@@ -1666,7 +1666,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
     <col min="6" max="6" width="24.742680140904" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
@@ -4498,7 +4498,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
